--- a/biology/Zoologie/Dasyatis_americana/Dasyatis_americana.xlsx
+++ b/biology/Zoologie/Dasyatis_americana/Dasyatis_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raie pastenague américaine
-Dasyatis americana, communément nommée Raie pastenague américaine[2], est une espèce de poissons marins de la famille des Dasyatidae. (Ne pas confondre avec la raie pastenague ou pastenague commune, Dasyatis pastinaca.)
-La Raie pastenague américaine est présente dans les eaux tropicales de l'océan Atlantique occidental, soit des côtes de l'état du New Jersey aux côtes orientales du Brésil incluant le golfe du Mexique ainsi que la mer des Caraïbes[1].
-Le diamètre maximal de son disque est de 150 cm mais le diamètre moyen observable est 80 cm[3].
+Dasyatis americana, communément nommée Raie pastenague américaine, est une espèce de poissons marins de la famille des Dasyatidae. (Ne pas confondre avec la raie pastenague ou pastenague commune, Dasyatis pastinaca.)
+La Raie pastenague américaine est présente dans les eaux tropicales de l'océan Atlantique occidental, soit des côtes de l'état du New Jersey aux côtes orientales du Brésil incluant le golfe du Mexique ainsi que la mer des Caraïbes.
+Le diamètre maximal de son disque est de 150 cm mais le diamètre moyen observable est 80 cm.
 			Une pastenague à Saint-Martin
 			Une raie près d'une épave
 </t>
